--- a/Loggerhead2019.xlsx
+++ b/Loggerhead2019.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -761,10 +761,6 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <f>H4*B4+H5*C4+H6*D4</f>
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
